--- a/SeleniumJava/com.crm.AdvanceSelenium/src/test/resources/login2.xlsx
+++ b/SeleniumJava/com.crm.AdvanceSelenium/src/test/resources/login2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\Learning\SeleniumJava\com.crm.AdvanceSelenium\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA59773B-4441-4CA3-8294-8AB1B8CF8893}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08FDF632-72F0-4D42-AF51-EFECB952E242}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4965" yWindow="2310" windowWidth="21600" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -51,10 +51,10 @@
     <t>hdhfd</t>
   </si>
   <si>
-    <t>shkdfsh@skdjhf</t>
-  </si>
-  <si>
     <t>akshfka</t>
+  </si>
+  <si>
+    <t>shkdfsh@skdjhf.in</t>
   </si>
 </sst>
 </file>
@@ -392,7 +392,7 @@
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -435,10 +435,10 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" t="s">
         <v>8</v>
-      </c>
-      <c r="B5" t="s">
-        <v>9</v>
       </c>
     </row>
   </sheetData>
